--- a/04_memo/map10.xlsx
+++ b/04_memo/map10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C944524E-1470-44A7-9215-A430357BF1F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70148D-7475-4592-974D-7E138D93ED6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -712,7 +712,108 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="468">
+  <dxfs count="481">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -4688,7 +4789,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4818,8 +4919,8 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
+      <c r="D5" s="3">
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4843,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M5" s="3">
         <v>1</v>
@@ -4866,8 +4967,8 @@
       <c r="S5" s="1">
         <v>1</v>
       </c>
-      <c r="T5" s="1">
-        <v>0</v>
+      <c r="T5" s="3">
+        <v>11</v>
       </c>
       <c r="U5" s="1">
         <v>1</v>
@@ -4888,34 +4989,34 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4939,10 +5040,10 @@
         <v>0</v>
       </c>
       <c r="T6" s="3">
+        <v>11</v>
+      </c>
+      <c r="U6" s="1">
         <v>2</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
@@ -4963,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -5011,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U7" s="1">
         <v>1</v>
@@ -5035,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -5083,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U8" s="1">
         <v>1</v>
@@ -5106,8 +5207,8 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
+      <c r="D9" s="3">
+        <v>11</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5131,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -5154,8 +5255,8 @@
       <c r="S9" s="1">
         <v>1</v>
       </c>
-      <c r="T9" s="1">
-        <v>0</v>
+      <c r="T9" s="3">
+        <v>11</v>
       </c>
       <c r="U9" s="1">
         <v>1</v>
@@ -5179,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -5227,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U10" s="1">
         <v>1</v>
@@ -5251,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -5299,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -5323,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -5371,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U12" s="1">
         <v>1</v>
@@ -5394,8 +5495,8 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
+      <c r="D13" s="3">
+        <v>11</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -5442,8 +5543,8 @@
       <c r="S13" s="1">
         <v>1</v>
       </c>
-      <c r="T13" s="1">
-        <v>0</v>
+      <c r="T13" s="3">
+        <v>11</v>
       </c>
       <c r="U13" s="1">
         <v>1</v>
@@ -5467,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -5515,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U14" s="1">
         <v>1</v>
@@ -5539,7 +5640,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -5587,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U15" s="1">
         <v>1</v>
@@ -5608,10 +5709,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -5635,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -5650,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -5659,10 +5760,10 @@
         <v>0</v>
       </c>
       <c r="T16" s="3">
+        <v>11</v>
+      </c>
+      <c r="U16" s="1">
         <v>2</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
@@ -5683,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -5730,8 +5831,8 @@
       <c r="S17" s="1">
         <v>1</v>
       </c>
-      <c r="T17" s="1">
-        <v>0</v>
+      <c r="T17" s="3">
+        <v>11</v>
       </c>
       <c r="U17" s="1">
         <v>1</v>
@@ -5827,622 +5928,786 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="M4:N4 M6:N6 A18:K18 R7:T8 R4:T4 R10:T10 M10:N10 A16:D17 A12:F15 T5:T6 M7:M9 H12:K15">
-    <cfRule type="cellIs" dxfId="467" priority="469" operator="equal">
+  <conditionalFormatting sqref="M4:N4 M6:N6 A18:K18 R7:S8 R4:T4 R10:S10 M10:N10 A12:C17 M7:M9 H12:K15 E12:F15">
+    <cfRule type="cellIs" dxfId="480" priority="534" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="535" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="536" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="537" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="538" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="539" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="540" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="541" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="542" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="543" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="544" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="545" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="546" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:K4 A6:I6 A5:D5 A10:F10 A11:K11 K6:K9 H10:L10 A7:F8 H7:I8">
-    <cfRule type="cellIs" dxfId="454" priority="456" operator="equal">
+  <conditionalFormatting sqref="A4:K4 A6:I6 A10:C10 A11:K11 K6:K9 H10:L10 A7:C8 H7:I8 A5:D5 E7:F8 E10:F10">
+    <cfRule type="cellIs" dxfId="467" priority="521" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="522" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="523" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="524" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="525" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="526" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="527" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="528" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="529" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="530" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="531" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="532" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="533" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:N12 M18:N18 R12:T12 R18:T18 L11:M11 M13:N15 R14:T15 T16:T17">
-    <cfRule type="cellIs" dxfId="441" priority="443" operator="equal">
+  <conditionalFormatting sqref="L12:N12 M18:N18 R12:S12 R18:T18 L11:M11 M13:N15 R14:S15">
+    <cfRule type="cellIs" dxfId="454" priority="508" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="509" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="510" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="511" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="512" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="513" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="514" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="515" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="516" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="517" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="518" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="519" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="520" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5 M5 K5">
-    <cfRule type="cellIs" dxfId="428" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="495" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="496" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="497" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="498" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="499" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="500" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="501" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="502" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="503" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="504" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="505" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="506" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="507" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17 K17">
-    <cfRule type="cellIs" dxfId="415" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="482" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="483" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="484" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="485" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="486" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="487" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="488" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="489" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="490" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="491" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="492" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="493" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="494" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:P12 O18:P18 O14:P15">
-    <cfRule type="cellIs" dxfId="389" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="443" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="444" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="445" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="446" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="447" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="448" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="449" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="450" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="451" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="452" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="453" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="454" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="455" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4 O7:P8 O10:P10 O6">
-    <cfRule type="cellIs" dxfId="376" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="430" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="431" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="432" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="433" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="434" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="435" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="436" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="437" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="438" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="439" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="440" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="441" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="442" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:W12 U14:W18">
-    <cfRule type="cellIs" dxfId="337" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="391" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="392" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="393" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="394" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="395" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="396" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="397" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="398" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="399" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="400" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="401" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="402" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="403" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:W8 U10:W10">
-    <cfRule type="cellIs" dxfId="324" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="378" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="379" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="380" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="381" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="382" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="383" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="384" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="385" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="386" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="387" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="388" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="389" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="390" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="cellIs" dxfId="311" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="365" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="366" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="367" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="368" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="369" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="370" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="371" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="373" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="374" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="375" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="376" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="377" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="298" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="352" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="353" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="354" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="355" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="356" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="357" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="358" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="359" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="360" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="361" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="362" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="363" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="364" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:W11">
-    <cfRule type="cellIs" dxfId="285" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="339" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="340" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="341" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="342" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="343" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="344" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="345" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="346" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="347" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="348" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="349" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="350" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="351" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L9">
-    <cfRule type="cellIs" dxfId="272" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="326" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="327" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="328" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="329" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="330" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="331" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="332" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="333" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="334" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="335" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="336" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="337" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="338" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L15 L17:L18">
-    <cfRule type="cellIs" dxfId="259" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="313" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="314" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="315" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="316" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="317" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="318" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="319" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="320" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="321" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="322" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="323" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="324" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="325" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:F9 H9:I9">
-    <cfRule type="cellIs" dxfId="246" priority="235" operator="equal">
+  <conditionalFormatting sqref="A9:C9 H9:I9 E9:F9">
+    <cfRule type="cellIs" dxfId="298" priority="300" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="301" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="302" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="303" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="304" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="305" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="307" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="308" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="309" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="310" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="311" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="312" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J8">
+    <cfRule type="cellIs" dxfId="285" priority="287" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="288" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="289" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="290" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="291" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="292" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="293" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="294" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="295" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="296" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="297" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="298" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="299" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="cellIs" dxfId="272" priority="274" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="275" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="276" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="277" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="278" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="279" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="280" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="281" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="282" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="283" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="284" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="285" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="286" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:P9 R9:S9 U9:W9">
+    <cfRule type="cellIs" dxfId="259" priority="261" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="262" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="263" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="264" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="265" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="266" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="267" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="268" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="269" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="270" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="271" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="272" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="273" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13:P13 R13:S13 U13:W13">
+    <cfRule type="cellIs" dxfId="246" priority="248" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="249" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="250" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="251" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="252" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="253" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="254" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="255" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="256" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="257" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="258" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="259" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="260" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:H5">
     <cfRule type="cellIs" dxfId="233" priority="222" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -6483,7 +6748,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="N5:P5 R5:S5">
     <cfRule type="cellIs" dxfId="220" priority="209" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -6524,7 +6789,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9:P9 R9:W9">
+  <conditionalFormatting sqref="Q4:Q5">
     <cfRule type="cellIs" dxfId="207" priority="196" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -6565,7 +6830,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O13:P13 R13:W13">
+  <conditionalFormatting sqref="Q18">
     <cfRule type="cellIs" dxfId="194" priority="183" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -6606,7 +6871,48 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:H5">
+  <conditionalFormatting sqref="N17:S17">
+    <cfRule type="cellIs" dxfId="181" priority="170" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="171" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="172" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="173" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="174" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="175" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="177" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="178" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="179" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="180" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="182" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:I17">
     <cfRule type="cellIs" dxfId="168" priority="157" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -6647,7 +6953,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:P5 R5:S5">
+  <conditionalFormatting sqref="P6:S6">
     <cfRule type="cellIs" dxfId="155" priority="144" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -6688,7 +6994,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q5">
+  <conditionalFormatting sqref="E16:S16">
     <cfRule type="cellIs" dxfId="142" priority="131" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -6729,7 +7035,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18">
+  <conditionalFormatting sqref="N7:N8">
     <cfRule type="cellIs" dxfId="129" priority="118" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -6770,7 +7076,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:S17">
+  <conditionalFormatting sqref="G7:G10">
     <cfRule type="cellIs" dxfId="116" priority="105" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -6811,7 +7117,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:I17">
+  <conditionalFormatting sqref="G12:G15">
     <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -6852,7 +7158,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:S6">
+  <conditionalFormatting sqref="Q7:Q10">
     <cfRule type="cellIs" dxfId="90" priority="79" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -6893,7 +7199,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:S16">
+  <conditionalFormatting sqref="Q12:Q15">
     <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -6934,7 +7240,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:N8">
+  <conditionalFormatting sqref="D7:D10">
     <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -6975,7 +7281,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G10">
+  <conditionalFormatting sqref="D12:D15">
     <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -7016,7 +7322,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G15">
+  <conditionalFormatting sqref="D16:D17">
     <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -7057,7 +7363,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:Q10">
+  <conditionalFormatting sqref="T5:T10">
     <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -7098,7 +7404,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q15">
+  <conditionalFormatting sqref="T12:T17">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>

--- a/04_memo/map10.xlsx
+++ b/04_memo/map10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4716DC85-8072-432B-BE4A-619CF076F250}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBDC3E2-01BB-419A-9B51-7B5908F7C9CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U16" s="1">
         <v>1</v>
